--- a/project1_EnterpriseAnalyticalDataLake/table_creation.xlsx
+++ b/project1_EnterpriseAnalyticalDataLake/table_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\bigdata_projects\project1_EnterpriseAnalyticalDataLake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAD907-9625-4487-9886-564058BA48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516118AF-4134-4C7B-861A-9D3F6E1E5B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config.landing_to_staging" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -145,9 +145,6 @@
     <t>created_by</t>
   </si>
   <si>
-    <t>created_timestamp</t>
-  </si>
-  <si>
     <t>…..</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>id int,source_application string,filename_body string,audit_category string,status string,audit_data string,audit_date date DEFAULT current_date(),audit_timestamp timestamp DEFAULT current_timestamp()</t>
-  </si>
-  <si>
-    <t>updated_timestamp</t>
   </si>
   <si>
     <t>parameter_format</t>
@@ -596,10 +590,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -613,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,10 +671,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,10 +732,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="str">
         <f>"CREATE TABLE " &amp; H2 &amp; "(" &amp; H5 &amp; ")" &amp; H8</f>
@@ -767,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,10 +783,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +811,10 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +874,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -897,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="str">
         <f>"CREATE TABLE " &amp; H2 &amp; "(" &amp; H5 &amp; ")" &amp; H8</f>
@@ -1032,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,10 +1040,10 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,13 +1051,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47AA6E-F93D-404E-AC99-F954F9D4E001}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1109,10 +1103,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1126,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,13 +1156,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1179,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,10 +1198,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,10 +1212,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,13 +1226,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,10 +1243,10 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="str">
         <f>"CREATE TABLE " &amp; H2 &amp; "(" &amp; H5 &amp; ")" &amp; H8</f>
@@ -1264,13 +1258,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1308,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1355,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,10 +1377,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1405,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,13 +1416,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,10 +1433,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1474,10 +1468,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +1503,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1526,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,13 +1542,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,10 +1559,10 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,16 +1601,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1624,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,13 +1635,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1682,10 +1676,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1692,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,10 +1711,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1734,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,10 +1753,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1770,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,10 +1778,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,16 +1803,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1826,18 +1820,18 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B25306-F823-43BA-BB01-85D15373316C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1868,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +1883,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +1893,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
